--- a/biology/Botanique/Mayna_odorata/Mayna_odorata.xlsx
+++ b/biology/Botanique/Mayna_odorata/Mayna_odorata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mayna odorata est une espèce de plantes à fleurs de la famille des Achariaceae (anciennement Flacourtiaceae). C'est est un petit arbre néotropical et c'est l'espèce type du genre Mayna.
-Il est connu en Guyane sous les noms de Ka'akɨ, Ka'asili (Wayãpi)[3].
+Il est connu en Guyane sous les noms de Ka'akɨ, Ka'asili (Wayãpi).
 </t>
         </is>
       </c>
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mayna odorata est un arbuste ou petit arbre, atteignant 6 m de haut. Les rameaux sont brunâtres pubescents à hirsutes. Les stipules sont subulées, longs d'environ 2 mm, subpersistantes. Les pétioles sont pubescents à hirsutes, longs de 1 à 2 cm, légèrement renflés distalement. Les feuilles membraneuses-chartacées, sont non ponctuées, glabrescentes dessus, à l'exception de la nervure médiane et des nervures secondaires un peu hirsutes, pileux dessous, plus denses sur les nervures, obovale à obovale-oblong, longues 12-25 cm pour 3,5-6,5 cm de large, acuminée, à base atténuée, à marge entière ou denticulée à assez grossièrement sinuée-dentée, et avec 7-9 paires de nervures secondaires. Les inflorescences sont axillaires, fasciculées, à 2-5 fleurs, pubescentes, avec des pédicelles longs de 2-4(-7) mm (jusqu'à 12 mm pour la fleurs femelles). Les 3 sépales sont ovales-orbiculaires, et mesurent 5,7 mm de diamètre. Les 7-9 pétales sont blancs, glabres, obovales et mesurent 8-9(-13) mm de long pour 5-7(-10) mm de large. Les fleurs mâles portent (20-)30 étamines, comportant un filet long de 3-6 mm, comme l'anthère, strigilleux. Les fleurs femelles ont un ovaire ovoïde, court-tomenteux, muriculé. On compte 2 ou 3  styles, fourchus et des stigmates lacérés. Le fruit, porté par un pédicelle long de 1 cm, est orange pâle, légèrement pubescent, avec des soies longues de 4-10 mm finalement caduques, de forme globuleuse, mesurant 1,5-2(-3) cm de diamètre. Les fruits contiennent 4-8 graines, rouges à orange mesurant jusqu'à 1 cm de long[4].
-Son pollen a été documenté[5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mayna odorata est un arbuste ou petit arbre, atteignant 6 m de haut. Les rameaux sont brunâtres pubescents à hirsutes. Les stipules sont subulées, longs d'environ 2 mm, subpersistantes. Les pétioles sont pubescents à hirsutes, longs de 1 à 2 cm, légèrement renflés distalement. Les feuilles membraneuses-chartacées, sont non ponctuées, glabrescentes dessus, à l'exception de la nervure médiane et des nervures secondaires un peu hirsutes, pileux dessous, plus denses sur les nervures, obovale à obovale-oblong, longues 12-25 cm pour 3,5-6,5 cm de large, acuminée, à base atténuée, à marge entière ou denticulée à assez grossièrement sinuée-dentée, et avec 7-9 paires de nervures secondaires. Les inflorescences sont axillaires, fasciculées, à 2-5 fleurs, pubescentes, avec des pédicelles longs de 2-4(-7) mm (jusqu'à 12 mm pour la fleurs femelles). Les 3 sépales sont ovales-orbiculaires, et mesurent 5,7 mm de diamètre. Les 7-9 pétales sont blancs, glabres, obovales et mesurent 8-9(-13) mm de long pour 5-7(-10) mm de large. Les fleurs mâles portent (20-)30 étamines, comportant un filet long de 3-6 mm, comme l'anthère, strigilleux. Les fleurs femelles ont un ovaire ovoïde, court-tomenteux, muriculé. On compte 2 ou 3  styles, fourchus et des stigmates lacérés. Le fruit, porté par un pédicelle long de 1 cm, est orange pâle, légèrement pubescent, avec des soies longues de 4-10 mm finalement caduques, de forme globuleuse, mesurant 1,5-2(-3) cm de diamètre. Les fruits contiennent 4-8 graines, rouges à orange mesurant jusqu'à 1 cm de long.
+Son pollen a été documenté
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On rencontre Mayna odorata du Honduras à la Colombie, et du Venezuela au Brésil (Amazonas, Pará, Amapá, Acre) en passant par les Guyanes, l'Équateur, le Pérou et la Bolivie[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On rencontre Mayna odorata du Honduras à la Colombie, et du Venezuela au Brésil (Amazonas, Pará, Amapá, Acre) en passant par les Guyanes, l'Équateur, le Pérou et la Bolivie.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Mayna odorata est une espèce pionnière zoochore par les mammifères[6], dont les graines pèsent 0,223 g[7],[8].
-Les fruits de Mayna odorata sont consommés par le singe écureuil Saimiri cassiquiarensis albigena en Colombie[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mayna odorata est une espèce pionnière zoochore par les mammifères, dont les graines pèsent 0,223 g,.
+Les fruits de Mayna odorata sont consommés par le singe écureuil Saimiri cassiquiarensis albigena en Colombie.
 </t>
         </is>
       </c>
@@ -607,11 +625,13 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chez les Wayãpi de Guyane, la décoction ou le macérat d'écorce et de feuilles de Mayna odorata sont bus, de même que ses feuilles brûlées, réduites en cendres sont consommées, comme antidiarrhéique[3]
-En Amazonie équatorienne, les Quechua emploient Mayna odorata pour soigner la diarrhée (décoction des graines et des racines)[10], les boutons de fièvre, et comme tonique pour les chiens[11].
-Mayna odorata a été identifiée pour ses propriétés contre la lèpre par les populations amérindiennes de l'Amazonas au XIXe siècle[12].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chez les Wayãpi de Guyane, la décoction ou le macérat d'écorce et de feuilles de Mayna odorata sont bus, de même que ses feuilles brûlées, réduites en cendres sont consommées, comme antidiarrhéique
+En Amazonie équatorienne, les Quechua emploient Mayna odorata pour soigner la diarrhée (décoction des graines et des racines), les boutons de fièvre, et comme tonique pour les chiens.
+Mayna odorata a été identifiée pour ses propriétés contre la lèpre par les populations amérindiennes de l'Amazonas au XIXe siècle.
 </t>
         </is>
       </c>
@@ -640,9 +660,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant[1] : 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1775, le botaniste Aublet propose le protologue suivant : 
 « MAYNA odorata. (Tabula 352.) 
 Frutex caules plures, ſimplices, ſexpedales, fragiles, è radice emittens. Folia alterna, ovato oblonga, longè acuminata, undulata, glabra, integerrima, petiolata. Stipulæ binæ, oppoſita, ad baſim petiolorum, deciduæ. Flores axillares, congeſti, brevi peduncular ſuffulti, odoris grati. 
 Florebat Decembri. 
